--- a/data/login_data.xlsx
+++ b/data/login_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rauf\my_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246D4E64-881E-4F6B-96B6-EAF39A338785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F39C111-06DF-43DF-B1D3-9E4931F46AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,6 +52,9 @@
     <t>NIK KTP</t>
   </si>
   <si>
+    <t>jln jeruk besar</t>
+  </si>
+  <si>
     <t>aab$7158</t>
   </si>
   <si>
@@ -61,25 +64,22 @@
     <t>larasati22</t>
   </si>
   <si>
-    <t>Siti Lestari</t>
-  </si>
-  <si>
-    <t>budi.lestari042</t>
-  </si>
-  <si>
-    <t>852826460058</t>
-  </si>
-  <si>
-    <t>jln raya merdeka</t>
-  </si>
-  <si>
-    <t>1999-07-20</t>
-  </si>
-  <si>
-    <t>37884349</t>
-  </si>
-  <si>
-    <t>370325842365491379</t>
+    <t>Rini Lestari</t>
+  </si>
+  <si>
+    <t>agus.hermawan791</t>
+  </si>
+  <si>
+    <t>805843545118</t>
+  </si>
+  <si>
+    <t>1981-12-21</t>
+  </si>
+  <si>
+    <t>37967256</t>
+  </si>
+  <si>
+    <t>377679483314418498</t>
   </si>
 </sst>
 </file>
@@ -450,16 +450,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -496,25 +488,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>

--- a/data/login_data.xlsx
+++ b/data/login_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rauf\my_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F39C111-06DF-43DF-B1D3-9E4931F46AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CA9C34-8F49-4C5B-8FE4-FB0E6AE45D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nama AT</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>1981-12-21</t>
-  </si>
-  <si>
-    <t>37967256</t>
   </si>
   <si>
     <t>377679483314418498</t>
@@ -86,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +95,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,11 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,13 +449,20 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -511,14 +522,15 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2">
+        <v>37969817</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>